--- a/小红书视频分红.xlsx
+++ b/小红书视频分红.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,14 +461,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Live图带来的氛围感💐每张都是绝杀</t>
+          <t>6–9月拍丽江选哪里❓一定别错过云杉坪</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
@@ -506,29 +506,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>一生要出片的中国女人</t>
+          <t>三亚客片！生命力就是最好的滤镜</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>三亚客片！生命力就是最好的滤镜</t>
+          <t>三亚目的地婚礼 这是被神明祝福的一天</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -536,14 +536,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>三亚海边必拍😍夕阳骑马婚纱照美晕</t>
+          <t>中外cp，嫁给爱情啦！深圳婚纱照</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -551,14 +551,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>三亚目的地婚礼 这是被神明祝福的一天</t>
+          <t>为什么拍婚纱照之前没有刷到这套....</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -566,14 +566,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>为了这9张照片✈️专门飞了一趟巴厘岛</t>
+          <t>丽江婚纱照高甜时刻！</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,14 +581,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>为什么拍婚纱照之前没有刷到这套....</t>
+          <t>仿佛看到了小说大结局～故事感也太强了叭</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -596,29 +596,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>丽江婚纱照高甜时刻！</t>
+          <t>你说最好的人就在身边，此刻我也这样想</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>800</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>丽江客片花絮 蓝月谷拍婚纱照绝了</t>
+          <t>厦门鼓浪屿教堂婚纱照客片花絮</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -626,14 +626,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>从前世穿越到今生的婚纱照，宿命感直接拉满</t>
+          <t>和不扫兴的对象拍婚纱照转场～真的超甜</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -641,14 +641,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>仿佛看到了小说大结局～故事感也太强了叭</t>
+          <t>和他一起旅拍的几个超甜瞬间</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -656,14 +656,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>余生请与我双人成行……</t>
+          <t>在大理拍到的漂亮照片~大理客片分享</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -671,14 +671,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>你可以永远相信海边的黄昏 三亚目的地婚礼</t>
+          <t>在杭州拍婚纱照真的太合我喜好了</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -686,29 +686,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>你说最好的人就在身边，此刻我也这样想</t>
+          <t>备婚必拍❗️少女感花房婚纱照～</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>全网无代餐 静谧梦幻的蓝月谷婚纱照太绝啦</t>
+          <t>备婚请上车！风格好看到跺脚的深圳婚纱照</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -716,29 +716,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>勇敢的人先享受世界 川西旅拍婚纱照</t>
+          <t>大家一起来感受下摄影师的快门速度</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>厦门客片 欢迎收看普通人的鼓浪屿拍摄花絮</t>
+          <t>妆前vs妆后，美到封神呀</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -746,14 +746,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>厦门鼓浪屿教堂婚纱照客片花絮</t>
+          <t>婚纱照的意义，远不止是记录美丽的瞬间</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -761,14 +761,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>去丽江拍了四套婚纱照，都说成片像部电影</t>
+          <t>婚纱照转场终于轮到我们拍啦</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -776,14 +776,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>告诉撒贝宁 新疆来过了没白活</t>
+          <t>客人说对这种风格很上头....马上安排！！！</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -791,14 +791,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>和不扫兴的对象拍婚纱照转场～真的超甜</t>
+          <t>希望十年后的我们看到这条视频依旧幸福</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -806,14 +806,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>和人生伴侣拍到了人生照片 丽江客片</t>
+          <t>当拍婚纱照遇到超级有趣的摄影师！</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -821,14 +821,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>和他一起旅拍的几个超甜瞬间</t>
+          <t>很甜很甜的客照分享～深圳婚纱照</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -836,14 +836,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>嘎嘎出片的法式草坪婚纱照</t>
+          <t>情侣必拍的拍照动作</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -851,14 +851,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>在大理拍到的漂亮照片~大理客片分享</t>
+          <t>情绪会被传染，浪漫也是💗</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -866,14 +866,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>在朋友圈发这个婚纱照花絮算炫耀吗？</t>
+          <t>我把婚纱照拍成了蹦迪现场🍻爸妈都无语了</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -881,14 +881,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>在杭州拍婚纱照真的太合我喜好了</t>
+          <t>把婚纱照拍成三生三世的宿命感也太浪漫了</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -896,14 +896,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>备婚必拍❗️少女感花房婚纱照～</t>
+          <t>拍下幸福的瞬间 我也站在幸福里</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -911,14 +911,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>大家都说好幸福好有恋爱感！！</t>
+          <t>接下来的新疆 将是封神级别的夏天</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -926,14 +926,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>好喜欢化妆师拍的花絮</t>
+          <t>无法复刻的瞬间 拍到了我梦想的婚纱照</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -941,44 +941,44 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>如果你也喜欢海！那千万不要错过</t>
+          <t>日子怎么可能和谁过都一样呢 深圳客片</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>妆前vs妆后，美到封神呀</t>
+          <t>是谁！把婚纱照拍成了杂志封面！</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>婚纱照的意义，远不止是记录美丽的瞬间</t>
+          <t>有如此丝滑的转场进入婚纱照届！</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -986,14 +986,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>婚纱照转场终于轮到我们拍啦</t>
+          <t>来一趟三亚就应该拍这样一组婚纱照</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1001,14 +1001,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>客片 落日礁石的浪漫🌅三亚海边婚纱照</t>
+          <t>来巴厘岛拍婚纱照了 和青岛似的</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1016,14 +1016,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>客片分享  这么丝滑的转场是谁没拍啊</t>
+          <t>欢迎收看超级欢乐的婚纱照拍摄现场！</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1031,14 +1031,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>客片分享|💞以爱之名 奔赴浪漫之约</t>
+          <t>比电影还浪漫的法式赫本风婚纱照！！美哭</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1046,14 +1046,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>希望十年后的我们看到这条视频依旧幸福</t>
+          <t>浪漫的简约美学婚纱照✨</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>幸福此刻具象化💓</t>
+          <t>浪漫直击心灵的法式森系婚纱照</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1076,14 +1076,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>当我把《赎罪》里的绿裙子拍成婚纱照…</t>
+          <t>海边，落日，烟花，浪漫🌊三亚目的地婚礼</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>当我用0.5倍打开我们的婚纱照</t>
+          <t>深圳独家场景 慕白庄园拍婚纱照绝了</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1106,14 +1106,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>当我用横构图的方式打开新疆婚纱照✨美呆了</t>
+          <t>狠狠拿捏！25年一定要去拍的巴厘岛拍的照片</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1121,14 +1121,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>我把婚纱照拍成了蹦迪现场🍻爸妈都无语了</t>
+          <t>用婚纱照转场开启我的人生新副本啦💥</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1136,14 +1136,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>打飞的去三亚拍了婚纱照🌴椰林沙滩太美了</t>
+          <t>直接抄作业💯甜酷女孩的丽江婚纱照来啦</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>把婚纱照拍成三生三世的宿命感也太浪漫了</t>
+          <t>看一万遍还是好喜欢我这组婚纱照花絮</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1166,14 +1166,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>把法式婚纱照的浪漫揉进草坪里</t>
+          <t>真不愧是我心心念念的三亚目的地婚礼</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1181,14 +1181,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>拍婚纱照用这个转场太丝滑啦</t>
+          <t>神明少女的婚纱照花絮❗️被光偏爱的新娘子</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>捅了仙女窝~森林里的花仙子跑出来了</t>
+          <t>花仙子的婚纱照花絮✨森系氛围太美啦💐</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1211,14 +1211,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>接下来的新疆 将是封神级别的夏天</t>
+          <t>蓝色大海的传说🌊美到想私藏的海景婚纱照</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>春日必拍的森系婚纱照🍃清新甜美好浪漫</t>
+          <t>被朋友问疯了😭丽江旅拍比电影还浪漫</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>是谁！把婚纱照拍成了杂志封面！</t>
+          <t>被爱总是值得记录📝</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1256,14 +1256,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>普通人的丽江婚纱照，爱与被爱同时发生了</t>
+          <t>解锁人生新皮肤：已婚版</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1271,14 +1271,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>普通人的丽江旅拍花絮分享</t>
+          <t>讲真的！！被我的婚纱照花絮迷住了！</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1286,14 +1286,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>替姐妹们试过了！红底真的很衬人</t>
+          <t>误以为花了天价🤣婚纱照拍成婚礼现场谁懂</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>来一趟三亚就应该拍这样一组婚纱照</t>
+          <t>赞爆朋友圈的传统民族风婚纱照❗绝美</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1316,14 +1316,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>来巴厘岛拍婚纱照了 和青岛似的</t>
+          <t>超丝滑的婚纱照转场 快学起来</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1331,14 +1331,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>欢迎收看我的四套婚纱照vlog</t>
+          <t>超火的婚纱照转圈转场⁉️是谁还没有拍</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1346,14 +1346,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>欢迎收看超级欢乐的婚纱照拍摄现场！</t>
+          <t>还原美貌！普通女孩的婚纱照变身</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>比电影还浪漫的法式赫本风婚纱照！！美哭</t>
+          <t>这一天我等了2013天</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1376,14 +1376,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>波光粼粼的洱海婚纱照也是给我拍上了</t>
+          <t>那些在巴厘岛拍到的人生浪漫瞬间</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>浪漫的简约美学婚纱照✨</t>
+          <t>那就祝我们有数不尽的烟花和浪漫吧</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1406,14 +1406,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>浪漫直击心灵的法式森系婚纱照</t>
+          <t>重生之我在丽江看到精修成片 直接暴风哭泣</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1421,14 +1421,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>海盐味的夏天｜三亚海边目的地婚礼太绝了</t>
+          <t>😭用《执子之手》做婚礼开场mv太好哭了</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1436,592 +1436,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>海边烟花婚纱照 古希腊掌管氛围的神</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>海边，落日，烟花，浪漫🌊三亚目的地婚礼</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>爸妈以为乖巧的我拍婚纱照是这样的但实际上</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>爸妈以为的婚纱照vs实际上我拍的婚纱照</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>狠狠拿捏！25年一定要去拍的巴厘岛拍的照片</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>用婚纱照转场开启我的人生新副本啦💥</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>男女摄影师的审美差异到底有多大？</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>男摄vs女摄拍照的区别，具象化了...</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>看一万遍还是好喜欢我这组婚纱照花絮</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>200</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>真不后悔!去三亚拍到了理想的婚纱照</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>真不愧是我心心念念的三亚目的地婚礼</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>真不是冰岛！我的三亚礁石目的地婚礼婚纱照</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>终于也拍到名场面头纱吻啦🤩</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>终于说服父母！花1W+飞去新疆办目的地婚礼</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>50</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>终于轮到我的婚纱照变装啦👰🤵</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>花仙子的婚纱照花絮✨森系氛围太美啦💐</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>蓝色大海的传说🌊美到想私藏的海景婚纱照</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>被爱总是值得记录📝</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>被这抹中国红硬控30s</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>见你的那天 眼睛开始写情书</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>视频带来的生命力！忍不住看了一遍又一遍</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>解锁人生新皮肤：已婚版</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>讲真的！！被我的婚纱照花絮迷住了！</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>误以为花了天价🤣婚纱照拍成婚礼现场谁懂</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>50</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>赞爆朋友圈的传统民族风婚纱照❗绝美</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>超丝滑的婚纱照转场 快学起来</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>跨越国界的爱，所有美好，都值得等待</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>还原美貌！普通女孩的婚纱照变身</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>这一天我等了2013天</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>这样的婚纱照一看就很甜啊</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>遇到超超有趣的摄影师会拍出什么照片</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>那些在巴厘岛拍到的人生浪漫瞬间</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>那就祝我们有数不尽的烟花和浪漫吧</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>都给我去拍0.5倍广角转场‼跟婚纱照太配了</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>镜头下的浪漫是爱意的具像化📷三亚客片</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>难怪00后都喜欢旅行风婚纱照</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>50</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>雪山不语 浪漫不渝🏔被群山见证的幸福</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>骑马拍婚纱照简直太帅了</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>😭用《执子之手》做婚礼开场mv太好哭了</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
     </row>
